--- a/statistiche/RandomForestCounterfactuals/LJ.xlsx
+++ b/statistiche/RandomForestCounterfactuals/LJ.xlsx
@@ -38,12 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF5E9"/>
+        <fgColor rgb="00E9ECEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Release B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ER Triage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ER Sepsis Triage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IV Antibiotics</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Release A</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IV Antibiotics</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Release B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LacticAcid</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LacticAcid</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ER Sepsis Triage</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -648,13 +648,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -755,16 +755,16 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -925,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>0</v>
@@ -986,22 +986,22 @@
         <v>0</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -1023,25 +1023,25 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1050,22 +1050,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>0</v>
@@ -1120,22 +1120,22 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
@@ -1157,7 +1157,7 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1166,40 +1166,40 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -1236,16 +1236,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
         <v>0</v>
@@ -1254,22 +1254,22 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
@@ -1291,25 +1291,25 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" t="n">
         <v>2</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1318,22 +1318,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
         <v>1</v>
@@ -1388,22 +1388,22 @@
         <v>0</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
@@ -1425,34 +1425,34 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -1461,13 +1461,13 @@
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1495,7 +1495,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>1</v>
@@ -1522,22 +1522,22 @@
         <v>0</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
@@ -1559,10 +1559,10 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
@@ -1595,13 +1595,13 @@
         <v>1</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>1</v>
@@ -1656,22 +1656,22 @@
         <v>0</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
@@ -1693,10 +1693,10 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1708,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1720,13 +1720,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>1</v>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
@@ -1778,7 +1778,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>1</v>
@@ -1790,22 +1790,22 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
@@ -1827,10 +1827,10 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -1839,10 +1839,10 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1854,22 +1854,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1897,7 +1897,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>1</v>
@@ -1924,22 +1924,22 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
@@ -1997,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>1</v>
@@ -2031,7 +2031,7 @@
         <v>12</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>1</v>
@@ -2058,22 +2058,22 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
@@ -2101,7 +2101,7 @@
         <v>13</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>3</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>1</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2174,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2189,25 +2189,25 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>3</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>1</v>
@@ -2262,22 +2262,22 @@
         <v>0</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
@@ -2299,10 +2299,10 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2314,34 +2314,34 @@
         <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
+      <c r="K28" t="n">
         <v>2</v>
       </c>
-      <c r="J28" t="n">
-        <v>1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="2" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>3</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>1</v>
@@ -2396,22 +2396,22 @@
         <v>0</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
@@ -2433,10 +2433,10 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2448,34 +2448,34 @@
         <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         <v>16</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>0</v>
@@ -2518,7 +2518,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>1</v>
@@ -2530,22 +2530,22 @@
         <v>0</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
@@ -2567,7 +2567,7 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -2579,10 +2579,10 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>1</v>
@@ -2591,25 +2591,25 @@
         <v>1</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" t="inlineStr">
         <is>
@@ -2637,7 +2637,7 @@
         <v>17</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>4</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>1</v>
@@ -2664,22 +2664,22 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>4</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>1</v>
@@ -2734,22 +2734,22 @@
         <v>0</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" s="2" t="n">
         <v>3</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>19</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>4</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>1</v>
@@ -2804,22 +2804,22 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="2" t="n">
         <v>4</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
@@ -2847,7 +2847,7 @@
         <v>20</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>0</v>
@@ -2862,7 +2862,7 @@
         <v>4</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>1</v>
@@ -2874,22 +2874,22 @@
         <v>0</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>4</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
@@ -2917,7 +2917,7 @@
         <v>21</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>0</v>
@@ -2932,7 +2932,7 @@
         <v>4</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="2" t="n">
         <v>1</v>
@@ -2944,22 +2944,22 @@
         <v>0</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="2" t="n">
         <v>7</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" s="2" t="n">
         <v>4</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
@@ -2987,7 +2987,7 @@
         <v>22</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>0</v>
@@ -3002,7 +3002,7 @@
         <v>5</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>1</v>
@@ -3014,22 +3014,22 @@
         <v>0</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="2" t="n">
         <v>7</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" s="2" t="n">
         <v>4</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
@@ -3057,7 +3057,7 @@
         <v>23</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>0</v>
@@ -3072,7 +3072,7 @@
         <v>5</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" s="2" t="n">
         <v>1</v>
@@ -3084,22 +3084,22 @@
         <v>0</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="2" t="n">
         <v>8</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" s="2" t="n">
         <v>4</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
@@ -3127,7 +3127,7 @@
         <v>24</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>0</v>
@@ -3142,7 +3142,7 @@
         <v>6</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" s="2" t="n">
         <v>1</v>
@@ -3154,22 +3154,22 @@
         <v>0</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="2" t="n">
         <v>8</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" s="2" t="n">
         <v>4</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>25</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>0</v>
@@ -3212,7 +3212,7 @@
         <v>6</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" s="2" t="n">
         <v>1</v>
@@ -3224,22 +3224,22 @@
         <v>0</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="2" t="n">
         <v>9</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" s="2" t="n">
         <v>4</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         <v>26</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>0</v>
@@ -3282,7 +3282,7 @@
         <v>6</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" s="2" t="n">
         <v>1</v>
@@ -3294,22 +3294,22 @@
         <v>0</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="2" t="n">
         <v>10</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" s="2" t="n">
         <v>4</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
@@ -3337,7 +3337,7 @@
         <v>27</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>0</v>
@@ -3352,7 +3352,7 @@
         <v>7</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="2" t="n">
         <v>1</v>
@@ -3364,22 +3364,22 @@
         <v>0</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="2" t="n">
         <v>10</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" s="2" t="n">
         <v>4</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>28</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>0</v>
@@ -3422,7 +3422,7 @@
         <v>7</v>
       </c>
       <c r="H44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>1</v>
@@ -3434,22 +3434,22 @@
         <v>0</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="2" t="n">
         <v>11</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" s="2" t="n">
         <v>4</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>29</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>7</v>
       </c>
       <c r="H45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" s="2" t="n">
         <v>1</v>
@@ -3504,22 +3504,22 @@
         <v>0</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="2" t="n">
         <v>12</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P45" s="2" t="n">
         <v>4</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="2" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>30</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>0</v>
@@ -3562,7 +3562,7 @@
         <v>7</v>
       </c>
       <c r="H46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" s="2" t="n">
         <v>1</v>
@@ -3574,22 +3574,22 @@
         <v>0</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="2" t="n">
         <v>12</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="2" t="n">
         <v>5</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" s="2" t="inlineStr">
         <is>
@@ -3617,13 +3617,13 @@
         <v>31</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>1</v>
@@ -3632,7 +3632,7 @@
         <v>7</v>
       </c>
       <c r="H47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" s="2" t="n">
         <v>1</v>
@@ -3644,16 +3644,16 @@
         <v>0</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="2" t="n">
         <v>12</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="2" t="n">
         <v>5</v>
